--- a/data/Group-2.xlsx
+++ b/data/Group-2.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -668,6 +668,195 @@
   </si>
   <si>
     <t>["Atheism", "Sinfulness", "Equality", "Equanimity", "Paucity", "Mundane", "Tedious", "Intensity", "Monotony"]</t>
+  </si>
+  <si>
+    <t>A statement with moral content that has been used too often to be interesting or thoughtful.</t>
+  </si>
+  <si>
+    <t>["Cliche", "Truism", "Banality"]</t>
+  </si>
+  <si>
+    <t>["Nuance", "Platform", "Attitude", "Plateau", "Song", "Wisecrack", "Tundra", "Devotion", "Religious"]</t>
+  </si>
+  <si>
+    <t>Dangerously likely to fall or collapse; not secured.</t>
+  </si>
+  <si>
+    <t>["Insecure", "Risky", "Hazardous", "Unsafe"]</t>
+  </si>
+  <si>
+    <t>["Secured", "Preventitive", "Pernicious", "Odious", "Impoverished", "Quiet", "Insidious", "Careless"]</t>
+  </si>
+  <si>
+    <t>A reason given in justification of a course of action that is not the real reason.</t>
+  </si>
+  <si>
+    <t>["Excuse", "Alibi", "Ploy"]</t>
+  </si>
+  <si>
+    <t>["Truth", "Context", "Prelude", "Preceding", "Introduction", "Withdrawal", "Wiredraw", "Impress", "First impression"]</t>
+  </si>
+  <si>
+    <t>A person, especially a young one, endowed with exceptional qualities or abilities.</t>
+  </si>
+  <si>
+    <t>["Genius", "Mastermind", "Virtuoso"]</t>
+  </si>
+  <si>
+    <t>["Imbecile", "Runt", "Prophet", "Piety", "Child", "Savior", "Champion", "Erudite"]</t>
+  </si>
+  <si>
+    <t>Win or regain the favor of by doing something to please.</t>
+  </si>
+  <si>
+    <t>["Appease", "Conciliate", "Pacify", "Placate"]</t>
+  </si>
+  <si>
+    <t>["Displease", "Blame", "Organize", "Rearrange", "Appreciate", "Praise", "Bewitch", "Dissimulate"]</t>
+  </si>
+  <si>
+    <t>An expert in a particular subject or field who gives opinions about it to the public.</t>
+  </si>
+  <si>
+    <t>["Expert", "Adviser", "Consultant"]</t>
+  </si>
+  <si>
+    <t>["Ignoramus", "Amateur", "Pun-maker", "Pugnacious", "Genius", "Fool", "Politician", "Farmer"]</t>
+  </si>
+  <si>
+    <t>Exceedingly idealistic; unrealistic and impractical.</t>
+  </si>
+  <si>
+    <t>["Idealistic", "Utopian", "Unrealistic"]</t>
+  </si>
+  <si>
+    <t>["Visual", "Sagacious", "Quick", "Exotic", "Reminiscent", "Destructive", "Conciliatory", "Repulsive", "Aloof"]</t>
+  </si>
+  <si>
+    <t>Stubborn or unmanageable.</t>
+  </si>
+  <si>
+    <t>["Obstinate", "Stubborn", "Unmanageable", "Obdurate", "Disobedient"]</t>
+  </si>
+  <si>
+    <t>["Willing", "Obedient", "Calcified", "Reflective", "Luminous", "Repeating", "Fractal", "Inverted", "Irascible"]</t>
+  </si>
+  <si>
+    <t>An unprincipled person.</t>
+  </si>
+  <si>
+    <t>["Rascal", "Scoundrel", "Wretch", "Profligate"]</t>
+  </si>
+  <si>
+    <t>["Austere", "Refund", "Repeated", "Pundit", "Prodigy", "Facilitate", "Pirate", "Professor"]</t>
+  </si>
+  <si>
+    <t>Punishment inflicted on someone as vengeance for a wrongful act.</t>
+  </si>
+  <si>
+    <t>["Punishment", "Penalty", "Comeuppance", "Reckoning"]</t>
+  </si>
+  <si>
+    <t>["Forgiveness", "Reward", "Distribution", "Attribution", "Disperse", "Reprobate", "Adviser", "Recognition"]</t>
+  </si>
+  <si>
+    <t>Involving or causing much bloodshed.</t>
+  </si>
+  <si>
+    <t>["Bloody", "Gory", "Grisly"]</t>
+  </si>
+  <si>
+    <t>["Lucky", "Sanctimonious", "Monastery", "Penguin-related", "Sanctuary", "Soft-spoken", "Religious", "Quixotic"]</t>
+  </si>
+  <si>
+    <t>The state of being separated or cut off.</t>
+  </si>
+  <si>
+    <t>["Detachment", "Separation", "Partition"]</t>
+  </si>
+  <si>
+    <t>["Congruence", "Adjoining", "Retribution", "Punishment", "Alimony", "Alibi", "Disquietude", "Magnitude", "Redoubtable"]</t>
+  </si>
+  <si>
+    <t>Not being what it purports to be; false or fake.</t>
+  </si>
+  <si>
+    <t>["Fake", "Bogus", "Specious", "Counterfeit", "Fraudulent"]</t>
+  </si>
+  <si>
+    <t>["Austere", "Authentic", "Genuine", "Artless", "Spacious", "Furious", "Pointed", "Soothing", "Mundane", "Susceptible"]</t>
+  </si>
+  <si>
+    <t>Behaving or looking as though one thinks one is superior to others.</t>
+  </si>
+  <si>
+    <t>["Arrogant", "Conceited", "Disdainful", "Pompous", "Condescending"]</t>
+  </si>
+  <si>
+    <t>["Humble", "Modest", "Superfluous", "Extra", "Royal", "Supreme", "Spurious", "Magniloquent", "Benevolent", "Partisan", "Silly"]</t>
+  </si>
+  <si>
+    <t>Excessive confidence or boldness; audacity.</t>
+  </si>
+  <si>
+    <t>["Audacity", "Boldness", "Daring", "Intrepidity"]</t>
+  </si>
+  <si>
+    <t>["Fear", "Cowardice", "Wooden", "Arrogance", "Consistency", "Reliability", "Instability", "Lavishness", "Intelligence"]</t>
+  </si>
+  <si>
+    <t>Easy to control or influence.</t>
+  </si>
+  <si>
+    <t>["Controllable", "Malleable", "Amenable", "Compliant"]</t>
+  </si>
+  <si>
+    <t>["Disobedient", "Spurious", "Pleasant", "Contagious", "Collapsible", "Histrionic", "Retrievable", "Reticent"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present, appearing, or found everywhere. </t>
+  </si>
+  <si>
+    <t>["Universal", "Omnipresent", "Pervasive", "Everywhere"]</t>
+  </si>
+  <si>
+    <t>["Rare", "Scarce", "Loud", "Raucous", "Tractable", "Understanding", "Perspicacious", "Reverent", "Religious", "Presumptuous"]</t>
+  </si>
+  <si>
+    <t>Accorded a great deal of respect due to age, wisdom, or character.</t>
+  </si>
+  <si>
+    <t>["Honored", "Revered", "Esteemed", "Respected"]</t>
+  </si>
+  <si>
+    <t>["Vulnerable", "Controllable", "Reverent", "Pious", "Conquerable", "Memorable", "Specious", "Immobile", "Vehement", "Loquacious"]</t>
+  </si>
+  <si>
+    <t>Capable of working successfully; feasible.</t>
+  </si>
+  <si>
+    <t>["Feasible", "Achievable", "Attainable", "Realistic"]</t>
+  </si>
+  <si>
+    <t>["Surreal", "Pliable", "Malleable", "Venerable", "Religious", "Refutable", "Audible", "Controllable", "Edible"]</t>
+  </si>
+  <si>
+    <t>Attractively lively and animated.</t>
+  </si>
+  <si>
+    <t>["Lively", "Animated", "Spirited", "Effervescent", "Upbeat"]</t>
+  </si>
+  <si>
+    <t>["Solemn", "Austere", "Glum", "Sullen", "Rapid", "Venerable", "Contagious", "Notorious", "Biting", "Incisive", "Sharp"]</t>
+  </si>
+  <si>
+    <t>1) Move in a turbulent fashion. 2) A large number of items in no order; a confused mass.</t>
+  </si>
+  <si>
+    <t>["Jumble", "Confusion", "Hodgepodge", "Mishmash"]</t>
+  </si>
+  <si>
+    <t>["Lightweight", "Injury", "Bruise", "Hydraulic", "Whine", "Singularity", "Amateur", "Prodigy", "Pundit"]</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1107,15 +1296,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1161,11 +1341,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1510,1452 +1689,1809 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J2" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J3" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J4" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J5" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J6" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J7" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J8" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J9" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J10" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J11" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J12" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J13" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>84</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J14" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J15" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J16" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J17" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J18" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J19" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J20" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J21" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J22" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J23" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>94</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J24" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>95</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J25" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>96</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J26" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J27" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J28" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I29" s="1">
-        <v>43702</v>
-      </c>
-      <c r="J29" s="1">
-        <v>43702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="I29" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J29" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>100</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J30" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I31" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J31" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>102</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I32" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J32" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <f>A32+1</f>
         <v>103</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J33" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <f t="shared" ref="A34:A68" si="0">A33+1</f>
         <v>104</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J34" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I35" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J35" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I36" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J36" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J37" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I38" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J38" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="I39" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J39" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="I40" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J40" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="I41" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J41" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I42" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J42" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I43" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J43" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I44" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="I44" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J44" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I45" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="I45" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J45" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I46" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="I46" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J46" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I47" s="3">
-        <v>43702</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="I47" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J47" s="2">
         <v>43702</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
+      <c r="A48" s="1">
         <v>118</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
+      <c r="C48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J48" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>119</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
+      <c r="C49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J49" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
+      <c r="C50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I50" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J50" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>121</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
+      <c r="C51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I51" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J51" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>122</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
+      <c r="C52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I52" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J52" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>123</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
+      <c r="C53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I53" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J53" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>124</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
+      <c r="C54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J54" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>125</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
+      <c r="C55" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I55" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J55" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>126</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
+      <c r="C56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J56" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>127</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
+      <c r="C57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J57" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>128</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
+      <c r="C58" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I58" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J58" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>129</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
+      <c r="C59" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I59" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J59" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>130</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
+      <c r="C60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I60" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J60" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>131</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
+      <c r="C61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I61" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J61" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>132</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
+      <c r="C62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I62" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J62" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>133</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
+      <c r="C63" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I63" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J63" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
+      <c r="C64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I64" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J64" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>135</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
+      <c r="C65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I65" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J65" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>136</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="0"/>
+      <c r="C66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J66" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" si="0"/>
+      <c r="C67" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I67" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J67" s="2">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>138</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>166</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I68" s="2">
+        <v>43702</v>
+      </c>
+      <c r="J68" s="2">
+        <v>43702</v>
       </c>
     </row>
   </sheetData>
